--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lutong Zhang\Desktop\StudyroomProgram\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BB105-5551-4178-8F82-5522AD680074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t xml:space="preserve">Week of:
 </t>
@@ -179,91 +165,92 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
-    <numFmt numFmtId="166" formatCode="mmmm&quot; &quot;d"/>
-    <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt formatCode="mmmm&quot; &quot;d" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="m&quot;/&quot;d" numFmtId="166"/>
+    <numFmt formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;" numFmtId="167"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="168"/>
   </numFmts>
   <fonts count="14">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="23"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
-      <i/>
+      <name val="Roboto"/>
+      <i val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
-      <b/>
+      <name val="Roboto"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
-      <b/>
+      <name val="Roboto"/>
+      <b val="1"/>
+      <color rgb="FF666666"/>
       <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FF666666"/>
       <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Roboto"/>
     </font>
     <font>
-      <b/>
+      <name val="Roboto"/>
+      <b val="1"/>
+      <color rgb="FF434343"/>
       <sz val="14"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
     </font>
     <font>
-      <b/>
+      <name val="Roboto"/>
+      <b val="1"/>
+      <color rgb="FF434343"/>
       <sz val="11"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FF434343"/>
       <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Roboto"/>
       <sz val="10"/>
-      <name val="Roboto"/>
     </font>
     <font>
+      <name val="Roboto"/>
+      <color rgb="FF555555"/>
       <sz val="10"/>
-      <color rgb="FF555555"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -379,114 +366,130 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="46">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="13" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="12" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="11" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -634,266 +637,258 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="18" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Copy of Template-style" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+  <tableStyles count="18" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9">
+    <tableStyle count="1" name="Copy of Template-style" pivot="0">
+      <tableStyleElement dxfId="17" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="Copy of Template-style 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+    <tableStyle count="1" name="Copy of Template-style 2" pivot="0">
+      <tableStyleElement dxfId="16" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="Copy of Template-style 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    <tableStyle count="1" name="Copy of Template-style 3" pivot="0">
+      <tableStyleElement dxfId="15" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="Copy of Template-style 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+    <tableStyle count="1" name="Copy of Template-style 4" pivot="0">
+      <tableStyleElement dxfId="14" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+    <tableStyle count="1" name="916-style" pivot="0">
+      <tableStyleElement dxfId="13" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    <tableStyle count="1" name="99-style" pivot="0">
+      <tableStyleElement dxfId="12" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="Copy of Template-style 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+    <tableStyle count="1" name="Copy of Template-style 5" pivot="0">
+      <tableStyleElement dxfId="11" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="Copy of Template-style 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+    <tableStyle count="1" name="Copy of Template-style 6" pivot="0">
+      <tableStyleElement dxfId="10" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    <tableStyle count="1" name="99-style 2" pivot="0">
+      <tableStyleElement dxfId="9" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+    <tableStyle count="1" name="916-style 2" pivot="0">
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+    <tableStyle count="1" name="99-style 3" pivot="0">
+      <tableStyleElement dxfId="7" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    <tableStyle count="1" name="916-style 3" pivot="0">
+      <tableStyleElement dxfId="6" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+    <tableStyle count="1" name="99-style 4" pivot="0">
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+    <tableStyle count="1" name="916-style 4" pivot="0">
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+    <tableStyle count="1" name="99-style 5" pivot="0">
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="99-style 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    <tableStyle count="1" name="99-style 6" pivot="0">
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+    <tableStyle count="1" name="916-style 5" pivot="0">
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle name="916-style 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="1" name="916-style 6" pivot="0">
+      <tableStyleElement dxfId="0" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_7" displayName="Table_7" ref="B5:I34" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_7" headerRowCount="0" id="1" name="Table_7" ref="B5:I34">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="99-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_4" displayName="Table_4" ref="B5:I34" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_4" headerRowCount="0" id="10" name="Table_4" ref="B5:I34">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_5" displayName="Table_5" ref="B37:I37" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_5" headerRowCount="0" id="11" name="Table_5" ref="B37:I37">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_9" displayName="Table_9" ref="B38:I38" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_9" headerRowCount="0" id="12" name="Table_9" ref="B38:I38">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_8" displayName="Table_8" ref="B39:K40" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_8" headerRowCount="0" id="2" name="Table_8" ref="B39:K40">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
-  <tableStyleInfo name="99-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_11" displayName="Table_11" ref="B35:I35" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_11" headerRowCount="0" id="3" name="Table_11" ref="B35:I35">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="99-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_13" displayName="Table_13" ref="B38:I38" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_13" headerRowCount="0" id="4" name="Table_13" ref="B38:I38">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="99-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_15" displayName="Table_15" ref="B37:I37" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_15" headerRowCount="0" id="5" name="Table_15" ref="B37:I37">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="99-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_17" displayName="Table_17" ref="B36:I36" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_17" headerRowCount="0" id="6" name="Table_17" ref="B36:I36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="99-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="99-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_1" displayName="Table_1" ref="B39:K40" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_1" headerRowCount="0" id="7" name="Table_1" ref="B39:K40">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Column10"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_2" displayName="Table_2" ref="B35:I35" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_2" headerRowCount="0" id="8" name="Table_2" ref="B35:I35">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_3" displayName="Table_3" ref="B36:I36" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table_3" headerRowCount="0" id="9" name="Table_3" ref="B36:I36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Column8"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
-  <tableStyleInfo name="Copy of Template-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Copy of Template-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1193,89 +1188,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C20" xSplit="2" ySplit="4"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection activeCell="C33" pane="bottomRight" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="26" customWidth="1"/>
-    <col min="3" max="9" width="21.5546875" style="26" customWidth="1"/>
-    <col min="10" max="11" width="3" style="26" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="37" width="3"/>
+    <col customWidth="1" max="2" min="2" style="37" width="14.44140625"/>
+    <col customWidth="1" max="9" min="3" style="37" width="21.5546875"/>
+    <col customWidth="1" max="11" min="10" style="37" width="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="6" customHeight="1">
-      <c r="A2" s="7"/>
+    <row customHeight="1" ht="6" r="1" s="37" spans="1:11">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="2" t="s"/>
+      <c r="C1" s="2" t="s"/>
+      <c r="D1" s="3" t="s"/>
+      <c r="E1" s="3" t="s"/>
+      <c r="F1" s="3" t="s"/>
+      <c r="G1" s="3" t="s"/>
+      <c r="H1" s="3" t="s"/>
+      <c r="I1" s="4" t="s"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2" s="37" spans="1:11">
+      <c r="A2" s="7" t="s"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="40" t="n">
         <v>43753</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="31">
+      <c r="D2" s="41" t="s"/>
+      <c r="E2" s="36" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="36" r="3" s="37" spans="1:11">
+      <c r="A3" s="42" t="s"/>
+      <c r="B3" t="s"/>
+      <c r="C3" s="43" t="n">
         <v>43767</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="43" t="n">
         <v>43768</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="43" t="n">
         <v>43769</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="43" t="n">
         <v>43770</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="43" t="n">
         <v>43771</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="43" t="n">
         <v>43772</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="43" t="n">
         <v>43773</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J3" s="44" t="n"/>
+      <c r="K3" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="4" s="37" spans="1:11">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" t="s"/>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1297,131 +1293,131 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="5" s="37" spans="1:11">
+      <c r="A5" s="12" t="s"/>
       <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="C5" s="13" t="s"/>
+      <c r="D5" s="13" t="s"/>
+      <c r="E5" s="13" t="s"/>
+      <c r="F5" s="13" t="s"/>
+      <c r="G5" s="13" t="s"/>
+      <c r="H5" s="13" t="s"/>
+      <c r="I5" s="13" t="s"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="6" s="37" spans="1:11">
+      <c r="A6" s="12" t="s"/>
       <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="C6" s="16" t="s"/>
+      <c r="D6" s="16" t="s"/>
+      <c r="E6" s="15" t="s"/>
+      <c r="F6" s="16" t="s"/>
+      <c r="G6" s="16" t="s"/>
+      <c r="H6" s="16" t="s"/>
+      <c r="I6" s="16" t="s"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="7" s="37" spans="1:11">
+      <c r="A7" s="12" t="s"/>
       <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="C7" s="13" t="s"/>
+      <c r="D7" s="13" t="s"/>
+      <c r="E7" s="13" t="s"/>
+      <c r="F7" s="13" t="s"/>
+      <c r="G7" s="13" t="s"/>
+      <c r="H7" s="13" t="s"/>
+      <c r="I7" s="13" t="s"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="8" s="37" spans="1:11">
+      <c r="A8" s="12" t="s"/>
       <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="C8" s="16" t="s"/>
+      <c r="D8" s="16" t="s"/>
+      <c r="E8" s="15" t="s"/>
+      <c r="F8" s="16" t="s"/>
+      <c r="G8" s="16" t="s"/>
+      <c r="H8" s="16" t="s"/>
+      <c r="I8" s="16" t="s"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="9" s="37" spans="1:11">
+      <c r="A9" s="12" t="s"/>
       <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="C9" s="13" t="s"/>
+      <c r="D9" s="13" t="s"/>
+      <c r="E9" s="17" t="s"/>
+      <c r="F9" s="13" t="s"/>
+      <c r="G9" s="13" t="s"/>
+      <c r="H9" s="13" t="s"/>
+      <c r="I9" s="13" t="s"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="10" s="37" spans="1:11">
+      <c r="A10" s="12" t="s"/>
       <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A11" s="12"/>
+      <c r="C10" s="16" t="s"/>
+      <c r="D10" s="16" t="s"/>
+      <c r="E10" s="16" t="s"/>
+      <c r="F10" s="16" t="s"/>
+      <c r="G10" s="16" t="s"/>
+      <c r="H10" s="16" t="s"/>
+      <c r="I10" s="16" t="s"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="11" s="37" spans="1:11">
+      <c r="A11" s="12" t="s"/>
       <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A12" s="12"/>
+      <c r="C11" s="13" t="s"/>
+      <c r="D11" s="13" t="s"/>
+      <c r="E11" s="13" t="s"/>
+      <c r="F11" s="13" t="s"/>
+      <c r="G11" s="13" t="s"/>
+      <c r="H11" s="13" t="s"/>
+      <c r="I11" s="13" t="s"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="12" s="37" spans="1:11">
+      <c r="A12" s="12" t="s"/>
       <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="C12" s="16" t="s"/>
+      <c r="D12" s="16" t="s"/>
+      <c r="E12" s="16" t="s"/>
+      <c r="F12" s="16" t="s"/>
+      <c r="G12" s="16" t="s"/>
+      <c r="H12" s="16" t="s"/>
+      <c r="I12" s="16" t="s"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="13" s="37" spans="1:11">
+      <c r="A13" s="12" t="s"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
@@ -1437,18 +1433,18 @@
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" t="s"/>
       <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="14" s="37" spans="1:11">
+      <c r="A14" s="12" t="s"/>
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
@@ -1464,18 +1460,18 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14"/>
+      <c r="G14" t="s"/>
       <c r="H14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="15" s="37" spans="1:11">
+      <c r="A15" s="12" t="s"/>
       <c r="B15" s="33" t="s">
         <v>23</v>
       </c>
@@ -1491,18 +1487,18 @@
       <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15"/>
+      <c r="G15" t="s"/>
       <c r="H15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A16" s="12"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="16" s="37" spans="1:11">
+      <c r="A16" s="12" t="s"/>
       <c r="B16" s="34" t="s">
         <v>24</v>
       </c>
@@ -1518,18 +1514,18 @@
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" t="s"/>
       <c r="H16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A17" s="12"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="17" s="37" spans="1:11">
+      <c r="A17" s="12" t="s"/>
       <c r="B17" s="33" t="s">
         <v>25</v>
       </c>
@@ -1545,18 +1541,18 @@
       <c r="F17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13" t="s"/>
       <c r="H17" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="18" s="37" spans="1:11">
+      <c r="A18" s="12" t="s"/>
       <c r="B18" s="34" t="s">
         <v>26</v>
       </c>
@@ -1572,18 +1568,18 @@
       <c r="F18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s"/>
       <c r="H18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="19" s="37" spans="1:11">
+      <c r="A19" s="12" t="s"/>
       <c r="B19" s="33" t="s">
         <v>27</v>
       </c>
@@ -1599,18 +1595,18 @@
       <c r="F19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13" t="s"/>
       <c r="H19" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A20" s="12"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="20" s="37" spans="1:11">
+      <c r="A20" s="12" t="s"/>
       <c r="B20" s="34" t="s">
         <v>28</v>
       </c>
@@ -1626,18 +1622,18 @@
       <c r="F20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13" t="s"/>
       <c r="H20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="J20" s="18" t="n"/>
+      <c r="K20" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="21" s="37" spans="1:11">
+      <c r="A21" s="12" t="s"/>
       <c r="B21" s="33" t="s">
         <v>29</v>
       </c>
@@ -1653,18 +1649,18 @@
       <c r="F21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13" t="s"/>
       <c r="H21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="22" s="37" spans="1:11">
+      <c r="A22" s="12" t="s"/>
       <c r="B22" s="34" t="s">
         <v>31</v>
       </c>
@@ -1680,18 +1676,18 @@
       <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13" t="s"/>
       <c r="H22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="23" s="37" spans="1:11">
+      <c r="A23" s="12" t="s"/>
       <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
@@ -1707,18 +1703,18 @@
       <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13" t="s"/>
       <c r="H23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="24" s="37" spans="1:11">
+      <c r="A24" s="12" t="s"/>
       <c r="B24" s="34" t="s">
         <v>33</v>
       </c>
@@ -1734,18 +1730,18 @@
       <c r="F24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13" t="s"/>
       <c r="H24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="25" s="37" spans="1:11">
+      <c r="A25" s="12" t="s"/>
       <c r="B25" s="33" t="s">
         <v>34</v>
       </c>
@@ -1761,18 +1757,18 @@
       <c r="F25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13" t="s"/>
       <c r="H25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="26" s="37" spans="1:11">
+      <c r="A26" s="12" t="s"/>
       <c r="B26" s="34" t="s">
         <v>36</v>
       </c>
@@ -1788,18 +1784,18 @@
       <c r="F26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13" t="s"/>
       <c r="H26" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="27" s="37" spans="1:11">
+      <c r="A27" s="12" t="s"/>
       <c r="B27" s="33" t="s">
         <v>37</v>
       </c>
@@ -1815,18 +1811,18 @@
       <c r="F27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13" t="s"/>
       <c r="H27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="28" s="37" spans="1:11">
+      <c r="A28" s="12" t="s"/>
       <c r="B28" s="34" t="s">
         <v>38</v>
       </c>
@@ -1842,203 +1838,203 @@
       <c r="F28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13" t="s"/>
       <c r="H28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="J28" s="18" t="n"/>
+      <c r="K28" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="29" s="37" spans="1:11">
+      <c r="A29" s="12" t="s"/>
       <c r="B29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="C29" s="16" t="s"/>
+      <c r="D29" s="16" t="s"/>
+      <c r="E29" s="13" t="s"/>
+      <c r="F29" s="13" t="s"/>
+      <c r="G29" s="13" t="s"/>
+      <c r="H29" s="13" t="s"/>
+      <c r="I29" s="13" t="s"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="30" s="37" spans="1:11">
+      <c r="A30" s="12" t="s"/>
       <c r="B30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="C30" s="16" t="s"/>
+      <c r="D30" s="16" t="s"/>
+      <c r="E30" s="13" t="s"/>
+      <c r="F30" s="13" t="s"/>
+      <c r="G30" s="13" t="s"/>
+      <c r="H30" s="13" t="s"/>
+      <c r="I30" s="13" t="s"/>
+      <c r="J30" s="18" t="n"/>
+      <c r="K30" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="31" s="37" spans="1:11">
+      <c r="A31" s="12" t="s"/>
       <c r="B31" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="C31" s="16" t="s"/>
+      <c r="D31" s="16" t="s"/>
+      <c r="E31" s="13" t="s"/>
+      <c r="F31" s="13" t="s"/>
+      <c r="G31" s="13" t="s"/>
+      <c r="H31" s="13" t="s"/>
+      <c r="I31" s="13" t="s"/>
+      <c r="J31" s="14" t="n"/>
+      <c r="K31" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="32" s="37" spans="1:11">
+      <c r="A32" s="12" t="s"/>
       <c r="B32" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="C32" s="16" t="s"/>
+      <c r="D32" s="16" t="s"/>
+      <c r="E32" s="13" t="s"/>
+      <c r="F32" s="13" t="s"/>
+      <c r="G32" s="13" t="s"/>
+      <c r="H32" s="13" t="s"/>
+      <c r="I32" s="13" t="s"/>
+      <c r="J32" s="18" t="n"/>
+      <c r="K32" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="33" s="37" spans="1:11">
+      <c r="A33" s="12" t="s"/>
       <c r="B33" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="C33" s="16" t="s"/>
+      <c r="D33" s="16" t="s"/>
+      <c r="E33" s="13" t="s"/>
+      <c r="F33" s="13" t="s"/>
+      <c r="G33" s="13" t="s"/>
+      <c r="H33" s="13" t="s"/>
+      <c r="I33" s="13" t="s"/>
+      <c r="J33" s="14" t="n"/>
+      <c r="K33" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="34" s="37" spans="1:11">
+      <c r="A34" s="12" t="s"/>
       <c r="B34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="C34" s="16" t="s"/>
+      <c r="D34" s="16" t="s"/>
+      <c r="E34" s="13" t="s"/>
+      <c r="F34" s="13" t="s"/>
+      <c r="G34" s="13" t="s"/>
+      <c r="H34" s="13" t="s"/>
+      <c r="I34" s="13" t="s"/>
+      <c r="J34" s="14" t="n"/>
+      <c r="K34" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="35" s="37" spans="1:11">
+      <c r="A35" s="12" t="s"/>
       <c r="B35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="C35" s="16" t="s"/>
+      <c r="D35" s="16" t="s"/>
+      <c r="E35" s="13" t="s"/>
+      <c r="F35" s="13" t="s"/>
+      <c r="G35" s="13" t="s"/>
+      <c r="H35" s="13" t="s"/>
+      <c r="I35" s="13" t="s"/>
+      <c r="J35" s="14" t="n"/>
+      <c r="K35" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="36" s="37" spans="1:11">
+      <c r="A36" s="12" t="s"/>
       <c r="B36" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="35">
+      <c r="C36" s="16" t="s"/>
+      <c r="D36" s="16" t="s"/>
+      <c r="E36" s="13" t="s"/>
+      <c r="F36" s="13" t="s"/>
+      <c r="G36" s="13" t="s"/>
+      <c r="H36" s="13" t="s"/>
+      <c r="I36" s="13" t="s"/>
+      <c r="J36" s="14" t="n"/>
+      <c r="K36" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="37" s="37" spans="1:11">
+      <c r="A37" s="12" t="s"/>
+      <c r="B37" s="45" t="n">
         <v>-6</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="C37" s="16" t="s"/>
+      <c r="D37" s="13" t="s"/>
+      <c r="E37" s="13" t="s"/>
+      <c r="F37" s="13" t="s"/>
+      <c r="G37" s="13" t="s"/>
+      <c r="H37" s="13" t="s"/>
+      <c r="I37" s="13" t="s"/>
+      <c r="J37" s="14" t="n"/>
+      <c r="K37" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="38" s="37" spans="1:11">
+      <c r="A38" s="12" t="s"/>
       <c r="B38" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" ht="6" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="C38" s="19" t="s"/>
+      <c r="D38" s="13" t="s"/>
+      <c r="E38" s="16" t="s"/>
+      <c r="F38" s="13" t="s"/>
+      <c r="G38" s="16" t="s"/>
+      <c r="H38" s="13" t="s"/>
+      <c r="I38" s="16" t="s"/>
+      <c r="J38" s="14" t="n"/>
+      <c r="K38" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="39" s="37" spans="1:11">
+      <c r="A39" s="20" t="n"/>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n"/>
+      <c r="E39" s="21" t="n"/>
+      <c r="F39" s="21" t="n"/>
+      <c r="G39" s="21" t="n"/>
+      <c r="H39" s="21" t="n"/>
+      <c r="I39" s="21" t="n"/>
+      <c r="J39" s="22" t="n"/>
+      <c r="K39" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="40" s="37" spans="1:11">
+      <c r="A40" s="20" t="n"/>
+      <c r="B40" s="23" t="n"/>
+      <c r="C40" s="34" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n"/>
+      <c r="F40" s="16" t="n"/>
+      <c r="G40" s="16" t="n"/>
+      <c r="H40" s="16" t="n"/>
+      <c r="I40" s="16" t="n"/>
+      <c r="J40" s="16" t="n"/>
+      <c r="K40" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="41" s="37" spans="1:11">
+      <c r="A41" s="24" t="n"/>
+      <c r="B41" s="25" t="n"/>
+      <c r="C41" s="24" t="n"/>
+      <c r="D41" s="24" t="n"/>
+      <c r="E41" s="24" t="n"/>
+      <c r="F41" s="24" t="n"/>
+      <c r="G41" s="24" t="n"/>
+      <c r="H41" s="24" t="n"/>
+      <c r="I41" s="24" t="n"/>
+      <c r="J41" s="24" t="n"/>
+      <c r="K41" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2046,680 +2042,675 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" verticalDpi="0"/>
   <tableParts count="6">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C5" xSplit="2" ySplit="4"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection activeCell="D13" pane="bottomRight" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="26" customWidth="1"/>
-    <col min="3" max="9" width="21.5546875" style="26" customWidth="1"/>
-    <col min="10" max="11" width="3" style="26" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="37" width="3"/>
+    <col customWidth="1" max="2" min="2" style="37" width="14.44140625"/>
+    <col customWidth="1" max="9" min="3" style="37" width="21.5546875"/>
+    <col customWidth="1" max="11" min="10" style="37" width="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="6" customHeight="1">
-      <c r="A2" s="7"/>
+    <row customHeight="1" ht="6" r="1" s="37" spans="1:11">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2" s="37" spans="1:11">
+      <c r="A2" s="7" t="n"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="42" t="n">
         <v>43717</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="28">
+      <c r="D2" s="41" t="n"/>
+      <c r="E2" s="36" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="36" r="3" s="37" spans="1:11">
+      <c r="A3" s="42" t="n"/>
+      <c r="C3" s="28" t="n">
         <v>43774</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="28" t="n">
         <v>43775</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="28" t="n">
         <v>43776</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="28" t="n">
         <v>43777</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="28" t="n">
         <v>43778</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="28" t="n">
         <v>43779</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="28" t="n">
         <v>43780</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J3" s="44" t="n"/>
+      <c r="K3" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="4" s="37" spans="1:11">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "DDDD"))</f>
-        <v>WEDNESDAY</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>THURSDAY</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>FRIDAY</v>
-      </c>
-      <c r="G4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SATURDAY</v>
-      </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SUNDAY</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MONDAY</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="33">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="34">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="33">
+      <c r="D4" s="10">
+        <f>UPPER(TEXT(D3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="E4" s="10">
+        <f>UPPER(TEXT(E3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="F4" s="10">
+        <f>UPPER(TEXT(F3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="G4" s="10">
+        <f>UPPER(TEXT(G3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="H4" s="10">
+        <f>UPPER(TEXT(H3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="I4" s="10">
+        <f>UPPER(TEXT(I3, "DDDD"))</f>
+        <v/>
+      </c>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="5" s="37" spans="1:11">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="33" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="6" s="37" spans="1:11">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="34" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="7" s="37" spans="1:11">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="33" t="n">
         <v>0.375</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="34">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="34">
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="8" s="37" spans="1:11">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="34" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="15" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="9" s="37" spans="1:11">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="33" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="17" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="10" s="37" spans="1:11">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="34" t="n">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="33">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="34">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="33">
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="11" s="37" spans="1:11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="33" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="12" s="37" spans="1:11">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="34" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="16" t="n"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="13" s="37" spans="1:11">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="34">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="33">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="34">
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="14" s="37" spans="1:11">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="34" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="15" s="37" spans="1:11">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="33" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="16" s="37" spans="1:11">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="34" t="n">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="33">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="34">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="33">
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="17" s="37" spans="1:11">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="33" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="18" s="37" spans="1:11">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="34" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="19" s="37" spans="1:11">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="34">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="33">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="34">
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="13" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="20" s="37" spans="1:11">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="34" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="13" t="n"/>
+      <c r="J20" s="18" t="n"/>
+      <c r="K20" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="21" s="37" spans="1:11">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="33" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="22" s="37" spans="1:11">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="34" t="n">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="33">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="34">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="33">
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="23" s="37" spans="1:11">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="33" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="24" s="37" spans="1:11">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="34" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="13" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="25" s="37" spans="1:11">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="33" t="n">
         <v>0.75</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="34">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="33">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="34">
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="26" s="37" spans="1:11">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="34" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="27" s="37" spans="1:11">
+      <c r="A27" s="12" t="n"/>
+      <c r="B27" s="33" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="13" t="n"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="28" s="37" spans="1:11">
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="34" t="n">
         <v>0.8125</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="33">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="34">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="33">
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="13" t="n"/>
+      <c r="J28" s="18" t="n"/>
+      <c r="K28" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="29" s="37" spans="1:11">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="33" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="13" t="n"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="30" s="37" spans="1:11">
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="34" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+      <c r="J30" s="18" t="n"/>
+      <c r="K30" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="31" s="37" spans="1:11">
+      <c r="A31" s="12" t="n"/>
+      <c r="B31" s="33" t="n">
         <v>0.875</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="34">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="33">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="33">
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
+      <c r="G31" s="13" t="n"/>
+      <c r="H31" s="13" t="n"/>
+      <c r="I31" s="13" t="n"/>
+      <c r="J31" s="14" t="n"/>
+      <c r="K31" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="32" s="37" spans="1:11">
+      <c r="A32" s="12" t="n"/>
+      <c r="B32" s="34" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
+      <c r="G32" s="13" t="n"/>
+      <c r="H32" s="13" t="n"/>
+      <c r="I32" s="13" t="n"/>
+      <c r="J32" s="18" t="n"/>
+      <c r="K32" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="33" s="37" spans="1:11">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="33" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
+      <c r="G33" s="13" t="n"/>
+      <c r="H33" s="13" t="n"/>
+      <c r="I33" s="13" t="n"/>
+      <c r="J33" s="14" t="n"/>
+      <c r="K33" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="34" s="37" spans="1:11">
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="33" t="n">
         <v>0.9375</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="34">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="33">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="34">
-        <v>-37</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="33">
-        <v>2.0833333333333329E-2</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" ht="6" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="13" t="n"/>
+      <c r="G34" s="13" t="n"/>
+      <c r="H34" s="13" t="n"/>
+      <c r="I34" s="13" t="n"/>
+      <c r="J34" s="14" t="n"/>
+      <c r="K34" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="35" s="37" spans="1:11">
+      <c r="A35" s="12" t="n"/>
+      <c r="B35" s="34" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="13" t="n"/>
+      <c r="G35" s="13" t="n"/>
+      <c r="H35" s="13" t="n"/>
+      <c r="I35" s="13" t="n"/>
+      <c r="J35" s="14" t="n"/>
+      <c r="K35" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="36" s="37" spans="1:11">
+      <c r="A36" s="12" t="n"/>
+      <c r="B36" s="33" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="13" t="n"/>
+      <c r="G36" s="13" t="n"/>
+      <c r="H36" s="16" t="n"/>
+      <c r="I36" s="13" t="n"/>
+      <c r="J36" s="14" t="n"/>
+      <c r="K36" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="37" s="37" spans="1:11">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="34" t="n">
+        <v>-38</v>
+      </c>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
+      <c r="G37" s="13" t="n"/>
+      <c r="H37" s="13" t="n"/>
+      <c r="I37" s="13" t="n"/>
+      <c r="J37" s="14" t="n"/>
+      <c r="K37" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="38" s="37" spans="1:11">
+      <c r="A38" s="12" t="n"/>
+      <c r="B38" s="33" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="C38" s="19" t="n"/>
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="16" t="n"/>
+      <c r="F38" s="13" t="n"/>
+      <c r="G38" s="16" t="n"/>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
+      <c r="J38" s="14" t="n"/>
+      <c r="K38" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="39" s="37" spans="1:11">
+      <c r="A39" s="20" t="n"/>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n"/>
+      <c r="E39" s="21" t="n"/>
+      <c r="F39" s="21" t="n"/>
+      <c r="G39" s="21" t="n"/>
+      <c r="H39" s="21" t="n"/>
+      <c r="I39" s="21" t="n"/>
+      <c r="J39" s="22" t="n"/>
+      <c r="K39" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="40" s="37" spans="1:11">
+      <c r="A40" s="20" t="n"/>
+      <c r="B40" s="23" t="n"/>
+      <c r="C40" s="34" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n"/>
+      <c r="F40" s="16" t="n"/>
+      <c r="G40" s="16" t="n"/>
+      <c r="H40" s="16" t="n"/>
+      <c r="I40" s="16" t="n"/>
+      <c r="J40" s="16" t="n"/>
+      <c r="K40" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="41" s="37" spans="1:11">
+      <c r="A41" s="24" t="n"/>
+      <c r="B41" s="25" t="n"/>
+      <c r="C41" s="24" t="n"/>
+      <c r="D41" s="24" t="n"/>
+      <c r="E41" s="24" t="n"/>
+      <c r="F41" s="24" t="n"/>
+      <c r="G41" s="24" t="n"/>
+      <c r="H41" s="24" t="n"/>
+      <c r="I41" s="24" t="n"/>
+      <c r="J41" s="24" t="n"/>
+      <c r="K41" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2727,14 +2718,14 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="6">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>